--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2303845.121096473</v>
+        <v>-2306774.316474666</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="G5" t="n">
         <v>14.15942171964163</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.75851419067473</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.75851419067473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="W5" t="n">
-        <v>10.29027757950467</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>10.29027757950455</v>
       </c>
     </row>
     <row r="6">
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="T6" t="n">
-        <v>27.75851419067473</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="V6" t="n">
-        <v>27.75851419067473</v>
+        <v>24.44969929914618</v>
       </c>
       <c r="W6" t="n">
-        <v>24.4496992991463</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="D7" t="n">
-        <v>27.75851419067473</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.44969929914618</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="R7" t="n">
-        <v>24.4496992991463</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>239.8079481415051</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>191.4298910353894</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>92.72679982914734</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>91.94909177356359</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.865113332095947</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>175.0521343158932</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>239.8079481415051</v>
       </c>
       <c r="V10" t="n">
-        <v>239.8079481415051</v>
+        <v>82.56986403321314</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.1644063769637</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.8518683469698</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.93034877516568</v>
+        <v>91.9303487751657</v>
       </c>
       <c r="T11" t="n">
         <v>200.6028050067863</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>289.4319774498999</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>341.4791337359683</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I13" t="n">
-        <v>86.13649374674405</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.6576746544297</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.8488525946973</v>
+        <v>119.5501787495808</v>
       </c>
       <c r="T13" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1933087134791</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.0921412633784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>161.2842668907411</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
         <v>286.8518683469699</v>
@@ -1661,13 +1661,13 @@
         <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>304.4821637973279</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1819,10 +1819,10 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>200.9224816057882</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.846260372256</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843784</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368216</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2242,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659998</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2305,7 +2305,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2375,10 +2375,10 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651996</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
         <v>338.1208983262551</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179215</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
         <v>317.6307663651991</v>
@@ -2728,10 +2728,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.124505344301</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659967</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
@@ -3013,7 +3013,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998809</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187942</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3190,10 +3190,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659973</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3329,10 +3329,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262555</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.62773630384</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3664,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943553</v>
@@ -3676,10 +3676,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112672</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
         <v>333.6626894187936</v>
@@ -3749,7 +3749,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894981</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187942</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4189,13 +4189,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.60093376251771</v>
+        <v>44.56203053961381</v>
       </c>
       <c r="C5" t="n">
-        <v>72.60093376251771</v>
+        <v>44.56203053961381</v>
       </c>
       <c r="D5" t="n">
-        <v>72.60093376251771</v>
+        <v>44.56203053961381</v>
       </c>
       <c r="E5" t="n">
-        <v>72.60093376251771</v>
+        <v>44.56203053961381</v>
       </c>
       <c r="F5" t="n">
-        <v>44.56203053961394</v>
+        <v>16.52312731671017</v>
       </c>
       <c r="G5" t="n">
-        <v>30.25958435815775</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="H5" t="n">
-        <v>30.25958435815775</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="J5" t="n">
-        <v>29.70161018402196</v>
+        <v>28.59126961639485</v>
       </c>
       <c r="K5" t="n">
-        <v>57.18253923278995</v>
+        <v>56.07219866516272</v>
       </c>
       <c r="L5" t="n">
-        <v>57.18253923278995</v>
+        <v>83.55312771393058</v>
       </c>
       <c r="M5" t="n">
-        <v>57.18253923278995</v>
+        <v>83.55312771393058</v>
       </c>
       <c r="N5" t="n">
-        <v>57.18253923278995</v>
+        <v>83.55312771393058</v>
       </c>
       <c r="O5" t="n">
-        <v>57.18253923278995</v>
+        <v>83.55312771393058</v>
       </c>
       <c r="P5" t="n">
-        <v>83.55312771393093</v>
+        <v>111.0340567626984</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.0340567626989</v>
+        <v>111.0340567626984</v>
       </c>
       <c r="R5" t="n">
-        <v>111.0340567626989</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="S5" t="n">
-        <v>111.0340567626989</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="T5" t="n">
-        <v>111.0340567626989</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="U5" t="n">
-        <v>82.99515353979515</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="V5" t="n">
-        <v>82.99515353979515</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="W5" t="n">
-        <v>72.60093376251771</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="X5" t="n">
-        <v>72.60093376251771</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.60093376251771</v>
+        <v>44.56203053961381</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220681135253979</v>
+        <v>28.59126961639485</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220681135253979</v>
+        <v>28.59126961639485</v>
       </c>
       <c r="L6" t="n">
-        <v>29.70161018402196</v>
+        <v>28.59126961639485</v>
       </c>
       <c r="M6" t="n">
-        <v>56.07219866516295</v>
+        <v>56.07219866516272</v>
       </c>
       <c r="N6" t="n">
-        <v>83.55312771393093</v>
+        <v>83.55312771393058</v>
       </c>
       <c r="O6" t="n">
-        <v>111.0340567626989</v>
+        <v>111.0340567626984</v>
       </c>
       <c r="P6" t="n">
-        <v>111.0340567626989</v>
+        <v>111.0340567626984</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0340567626989</v>
+        <v>111.0340567626984</v>
       </c>
       <c r="R6" t="n">
-        <v>82.99515353979515</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="S6" t="n">
-        <v>82.99515353979515</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="T6" t="n">
-        <v>54.95625031689138</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="U6" t="n">
-        <v>54.95625031689138</v>
+        <v>26.91734709398749</v>
       </c>
       <c r="V6" t="n">
-        <v>26.91734709398762</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="X6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="C7" t="n">
-        <v>58.29848758106152</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="D7" t="n">
-        <v>30.25958435815775</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="E7" t="n">
-        <v>30.25958435815775</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="F7" t="n">
-        <v>30.25958435815775</v>
+        <v>54.95625031689114</v>
       </c>
       <c r="G7" t="n">
-        <v>30.25958435815775</v>
+        <v>30.25958435815762</v>
       </c>
       <c r="H7" t="n">
-        <v>30.25958435815775</v>
+        <v>30.25958435815762</v>
       </c>
       <c r="I7" t="n">
-        <v>30.25958435815775</v>
+        <v>30.25958435815762</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220681135253979</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="K7" t="n">
-        <v>28.59126961639497</v>
+        <v>2.220681135253969</v>
       </c>
       <c r="L7" t="n">
-        <v>28.59126961639497</v>
+        <v>29.70161018402183</v>
       </c>
       <c r="M7" t="n">
-        <v>56.07219866516295</v>
+        <v>29.70161018402183</v>
       </c>
       <c r="N7" t="n">
-        <v>83.55312771393093</v>
+        <v>56.07219866516272</v>
       </c>
       <c r="O7" t="n">
-        <v>83.55312771393093</v>
+        <v>83.55312771393058</v>
       </c>
       <c r="P7" t="n">
-        <v>111.0340567626989</v>
+        <v>111.0340567626984</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.0340567626989</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="R7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="S7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="T7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="U7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="V7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="W7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="X7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.33739080396529</v>
+        <v>82.99515353979479</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.17751432369236</v>
+        <v>865.5683583951646</v>
       </c>
       <c r="C8" t="n">
-        <v>39.17751432369236</v>
+        <v>865.5683583951646</v>
       </c>
       <c r="D8" t="n">
-        <v>39.17751432369236</v>
+        <v>865.5683583951646</v>
       </c>
       <c r="E8" t="n">
-        <v>39.17751432369236</v>
+        <v>623.3381077471796</v>
       </c>
       <c r="F8" t="n">
-        <v>32.2320135744889</v>
+        <v>381.1078570991946</v>
       </c>
       <c r="G8" t="n">
-        <v>19.18463585132041</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H8" t="n">
-        <v>19.18463585132041</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I8" t="n">
         <v>19.18463585132041</v>
@@ -4832,22 +4832,22 @@
         <v>959.2317925660205</v>
       </c>
       <c r="T8" t="n">
-        <v>765.8682662676474</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="U8" t="n">
-        <v>765.8682662676474</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="V8" t="n">
-        <v>523.6380156196624</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="W8" t="n">
-        <v>281.4077649716774</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="X8" t="n">
-        <v>281.4077649716774</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.4077649716774</v>
+        <v>865.5683583951646</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.4764210085451</v>
+        <v>112.0625063296675</v>
       </c>
       <c r="C9" t="n">
-        <v>406.4764210085451</v>
+        <v>112.0625063296675</v>
       </c>
       <c r="D9" t="n">
-        <v>257.5420113472939</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E9" t="n">
-        <v>257.5420113472939</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F9" t="n">
-        <v>257.5420113472939</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G9" t="n">
-        <v>120.1006137065158</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H9" t="n">
         <v>19.18463585132041</v>
@@ -4881,10 +4881,10 @@
         <v>19.18463585132041</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18463585132041</v>
+        <v>85.30141548166362</v>
       </c>
       <c r="K9" t="n">
-        <v>86.79245551467744</v>
+        <v>152.9092351450207</v>
       </c>
       <c r="L9" t="n">
         <v>290.1388331607146</v>
@@ -4905,28 +4905,28 @@
         <v>959.2317925660205</v>
       </c>
       <c r="R9" t="n">
-        <v>952.2973346548125</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="S9" t="n">
-        <v>802.8305455174473</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="T9" t="n">
-        <v>802.8305455174473</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="U9" t="n">
-        <v>574.6917580286131</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="V9" t="n">
-        <v>574.6917580286131</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="W9" t="n">
-        <v>574.6917580286131</v>
+        <v>695.8896423202223</v>
       </c>
       <c r="X9" t="n">
-        <v>574.6917580286131</v>
+        <v>488.0381421146894</v>
       </c>
       <c r="Y9" t="n">
-        <v>574.6917580286131</v>
+        <v>280.2778433497355</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>297.950953577229</v>
+        <v>187.1758630230187</v>
       </c>
       <c r="C10" t="n">
-        <v>297.950953577229</v>
+        <v>187.1758630230187</v>
       </c>
       <c r="D10" t="n">
-        <v>297.950953577229</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="E10" t="n">
-        <v>297.950953577229</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="F10" t="n">
-        <v>297.950953577229</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="G10" t="n">
-        <v>297.950953577229</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="H10" t="n">
-        <v>143.6963104769941</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="I10" t="n">
-        <v>19.18463585132041</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="J10" t="n">
         <v>19.18463585132041</v>
@@ -4966,19 +4966,19 @@
         <v>120.2325654469302</v>
       </c>
       <c r="L10" t="n">
-        <v>245.1780356031038</v>
+        <v>305.0655603477486</v>
       </c>
       <c r="M10" t="n">
-        <v>450.4476363223418</v>
+        <v>453.8659557427017</v>
       </c>
       <c r="N10" t="n">
-        <v>656.2710011584461</v>
+        <v>659.689320578806</v>
       </c>
       <c r="O10" t="n">
-        <v>830.3658965470449</v>
+        <v>833.7842159674049</v>
       </c>
       <c r="P10" t="n">
-        <v>955.8134731456606</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="Q10" t="n">
         <v>959.2317925660205</v>
@@ -4990,22 +4990,22 @@
         <v>959.2317925660205</v>
       </c>
       <c r="T10" t="n">
-        <v>782.4114548731991</v>
+        <v>733.6025958783855</v>
       </c>
       <c r="U10" t="n">
-        <v>540.1812042252141</v>
+        <v>491.3723452304005</v>
       </c>
       <c r="V10" t="n">
-        <v>297.950953577229</v>
+        <v>407.9684421665488</v>
       </c>
       <c r="W10" t="n">
-        <v>297.950953577229</v>
+        <v>407.9684421665488</v>
       </c>
       <c r="X10" t="n">
-        <v>297.950953577229</v>
+        <v>407.9684421665488</v>
       </c>
       <c r="Y10" t="n">
-        <v>297.950953577229</v>
+        <v>187.1758630230187</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2313.039625065619</v>
+        <v>1911.237576569751</v>
       </c>
       <c r="C11" t="n">
-        <v>1944.077108125207</v>
+        <v>1542.275059629339</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.811409518456</v>
+        <v>1184.009361022589</v>
       </c>
       <c r="E11" t="n">
-        <v>1200.023156920212</v>
+        <v>798.2211084243448</v>
       </c>
       <c r="F11" t="n">
-        <v>789.0372521306047</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="G11" t="n">
-        <v>374.7297709417524</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H11" t="n">
-        <v>84.98040897511625</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I11" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P11" t="n">
         <v>3813.656640612704</v>
@@ -5078,13 +5078,13 @@
         <v>3369.000248080187</v>
       </c>
       <c r="W11" t="n">
-        <v>3076.64471530251</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="X11" t="n">
-        <v>2703.17895704143</v>
+        <v>2642.765834548993</v>
       </c>
       <c r="Y11" t="n">
-        <v>2313.039625065619</v>
+        <v>2297.837416633873</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2634.934250816502</v>
+        <v>941.5579923844783</v>
       </c>
       <c r="C12" t="n">
-        <v>2460.481221535375</v>
+        <v>767.1049631033513</v>
       </c>
       <c r="D12" t="n">
-        <v>2311.546811874124</v>
+        <v>618.1705534421001</v>
       </c>
       <c r="E12" t="n">
-        <v>2152.309356868668</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F12" t="n">
-        <v>2005.774798895553</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G12" t="n">
-        <v>1869.820993208504</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>1783.272021853795</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>1778.35666740714</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J12" t="n">
-        <v>1778.35666740714</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K12" t="n">
-        <v>2081.397716757004</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L12" t="n">
-        <v>2535.196346351332</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M12" t="n">
-        <v>3084.114810961621</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N12" t="n">
-        <v>3661.970158888023</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O12" t="n">
-        <v>4040.172506744532</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P12" t="n">
-        <v>4040.172506744532</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q12" t="n">
-        <v>4249.020448755812</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R12" t="n">
-        <v>4249.020448755812</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="S12" t="n">
-        <v>4127.18502770635</v>
+        <v>2433.808769274326</v>
       </c>
       <c r="T12" t="n">
-        <v>3936.191771364142</v>
+        <v>2242.815512932119</v>
       </c>
       <c r="U12" t="n">
-        <v>3708.150851767001</v>
+        <v>2014.774593334977</v>
       </c>
       <c r="V12" t="n">
-        <v>3472.998743535258</v>
+        <v>1779.622485103235</v>
       </c>
       <c r="W12" t="n">
-        <v>3218.761386807057</v>
+        <v>1525.385128375033</v>
       </c>
       <c r="X12" t="n">
-        <v>3010.909886601524</v>
+        <v>1317.5336281695</v>
       </c>
       <c r="Y12" t="n">
-        <v>2803.14958783657</v>
+        <v>1109.773329404546</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.1497072776281</v>
+        <v>949.4789535305802</v>
       </c>
       <c r="C13" t="n">
-        <v>634.1497072776281</v>
+        <v>780.5427706026733</v>
       </c>
       <c r="D13" t="n">
-        <v>634.1497072776281</v>
+        <v>630.4261311903375</v>
       </c>
       <c r="E13" t="n">
-        <v>486.236613695235</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="F13" t="n">
-        <v>339.3466661973246</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="G13" t="n">
-        <v>171.9869683152618</v>
+        <v>315.1533397258817</v>
       </c>
       <c r="H13" t="n">
         <v>171.9869683152618</v>
@@ -5197,7 +5197,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J13" t="n">
-        <v>153.8801783755868</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K13" t="n">
         <v>396.9405013869778</v>
@@ -5221,28 +5221,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R13" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="S13" t="n">
-        <v>2019.061021685725</v>
+        <v>2158.410868654963</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.760544521729</v>
+        <v>2158.410868654963</v>
       </c>
       <c r="U13" t="n">
-        <v>1509.676394306094</v>
+        <v>1869.326718439328</v>
       </c>
       <c r="V13" t="n">
-        <v>1254.991906100207</v>
+        <v>1869.326718439328</v>
       </c>
       <c r="W13" t="n">
-        <v>1254.991906100207</v>
+        <v>1579.909548402367</v>
       </c>
       <c r="X13" t="n">
-        <v>1027.002355202189</v>
+        <v>1351.91999750435</v>
       </c>
       <c r="Y13" t="n">
-        <v>815.7981721078678</v>
+        <v>1131.12741836082</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1911.237576569751</v>
+        <v>2119.49594171793</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.275059629339</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1184.009361022589</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E14" t="n">
-        <v>798.2211084243448</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>387.2352036347373</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
         <v>387.2352036347373</v>
@@ -5276,10 +5276,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5291,7 +5291,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612704</v>
@@ -5309,19 +5309,19 @@
         <v>3953.532414632629</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423758</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080187</v>
+        <v>3622.469527289058</v>
       </c>
       <c r="W14" t="n">
-        <v>3061.442506870765</v>
+        <v>3269.700872018944</v>
       </c>
       <c r="X14" t="n">
-        <v>2687.976748609685</v>
+        <v>2896.235113757864</v>
       </c>
       <c r="Y14" t="n">
-        <v>2297.837416633873</v>
+        <v>2506.095781782052</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L15" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.694692760353</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>927.4327181005837</v>
+        <v>421.276289785086</v>
       </c>
       <c r="C16" t="n">
-        <v>927.4327181005837</v>
+        <v>252.340106857179</v>
       </c>
       <c r="D16" t="n">
-        <v>777.3160786882479</v>
+        <v>252.340106857179</v>
       </c>
       <c r="E16" t="n">
-        <v>629.4029851058548</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511625</v>
@@ -5458,28 +5458,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2279.168624967671</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2093.462713255856</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>1873.16223609186</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1584.078085876224</v>
+        <v>1595.808542899721</v>
       </c>
       <c r="V16" t="n">
-        <v>1584.078085876224</v>
+        <v>1341.124054693834</v>
       </c>
       <c r="W16" t="n">
-        <v>1294.660915839264</v>
+        <v>1051.706884656873</v>
       </c>
       <c r="X16" t="n">
-        <v>1066.671364941246</v>
+        <v>823.7173337588558</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.4327181005837</v>
+        <v>602.9247546153257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5513,19 +5513,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
@@ -5540,7 +5540,7 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5549,16 +5549,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>875.4343898857001</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511625</v>
@@ -5674,49 +5674,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I20" t="n">
         <v>84.98040897511625</v>
@@ -5753,16 +5753,16 @@
         <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951456</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5771,13 +5771,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283566</v>
@@ -5835,22 +5835,22 @@
         <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>879.6062951712933</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1428.524759781582</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511625</v>
@@ -5911,16 +5911,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
         <v>2087.878830313936</v>
@@ -5929,19 +5929,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357084</v>
@@ -5950,10 +5950,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5981,49 +5981,49 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
@@ -6060,13 +6060,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
         <v>519.5985603334505</v>
@@ -6075,19 +6075,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1357.07436680343</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1934.929714729833</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315386</v>
@@ -6142,16 +6142,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6212,22 +6212,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6239,34 +6239,34 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.13298385146</v>
@@ -6297,13 +6297,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
         <v>519.5985603334505</v>
@@ -6312,19 +6312,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>1357.07436680343</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1934.929714729833</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039816</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315399</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749457</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443614</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
@@ -6403,19 +6403,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357084</v>
@@ -6424,10 +6424,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6446,7 +6446,7 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
         <v>725.1782574796675</v>
@@ -6461,28 +6461,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755811</v>
@@ -6491,22 +6491,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477705</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897927</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902786</v>
@@ -6640,31 +6640,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
@@ -6686,64 +6686,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.274605188203</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1797.129953114605</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>2303.534908062855</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502104</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897936</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,37 +6871,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,25 +6950,25 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382061</v>
@@ -6977,10 +6977,10 @@
         <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>122.7666162271013</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>425.8076655769658</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>879.6062951712933</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1428.524759781582</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
@@ -7166,55 +7166,55 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.13298385146</v>
@@ -7245,13 +7245,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
         <v>519.5985603334505</v>
@@ -7263,13 +7263,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1522.315654538067</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O39" t="n">
-        <v>2028.720609486317</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2415.822165038473</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
@@ -7345,37 +7345,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
         <v>725.1782574796675</v>
@@ -7430,7 +7430,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755812</v>
@@ -7491,25 +7491,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>235.0538732027192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>688.8525027970467</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.626315333738</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>2322.031270281988</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
@@ -7570,10 +7570,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7585,7 +7585,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7594,22 +7594,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7649,19 +7649,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7676,22 +7676,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7807,13 +7807,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
@@ -7825,7 +7825,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352543</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>111.7669197196015</v>
+        <v>110.6453635906853</v>
       </c>
       <c r="K5" t="n">
         <v>102.4143086146593</v>
       </c>
       <c r="L5" t="n">
-        <v>55.34260757265957</v>
+        <v>83.10112176333431</v>
       </c>
       <c r="M5" t="n">
-        <v>29.58998355183903</v>
+        <v>29.58998355183917</v>
       </c>
       <c r="N5" t="n">
-        <v>25.40836791721151</v>
+        <v>25.40836791721168</v>
       </c>
       <c r="O5" t="n">
-        <v>37.462362183745</v>
+        <v>37.46236218374517</v>
       </c>
       <c r="P5" t="n">
-        <v>93.45971328033016</v>
+        <v>94.58126940924632</v>
       </c>
       <c r="Q5" t="n">
-        <v>126.5989604545343</v>
+        <v>98.84044626385969</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>69.04275703702021</v>
+        <v>95.6797150987787</v>
       </c>
       <c r="K6" t="n">
-        <v>39.06080134589723</v>
+        <v>39.06080134589732</v>
       </c>
       <c r="L6" t="n">
-        <v>33.49013639125133</v>
+        <v>5.73162220057668</v>
       </c>
       <c r="M6" t="n">
-        <v>13.77309873347854</v>
+        <v>14.8946548623947</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>24.8091343465795</v>
       </c>
       <c r="P6" t="n">
-        <v>17.1612123938786</v>
+        <v>17.16121239387869</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.89524673347375</v>
+        <v>61.89524673347381</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,19 +8374,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>96.06612612133554</v>
+        <v>69.42916805957701</v>
       </c>
       <c r="L7" t="n">
-        <v>58.63755502344374</v>
+        <v>86.3960692141184</v>
       </c>
       <c r="M7" t="n">
-        <v>86.29239940719559</v>
+        <v>58.53388521652091</v>
       </c>
       <c r="N7" t="n">
-        <v>76.96369959192013</v>
+        <v>75.84214346300394</v>
       </c>
       <c r="O7" t="n">
-        <v>65.96722444204764</v>
+        <v>93.72573863272231</v>
       </c>
       <c r="P7" t="n">
         <v>103.4593871884772</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>73.01783107116394</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>66.78462588923557</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>101.9822523045395</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>121.4700595717842</v>
       </c>
       <c r="N10" t="n">
         <v>171.8177168444618</v>
@@ -8629,7 +8629,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839801</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8754244234233</v>
+        <v>14.87542442342334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>194.0019016021898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>83.90898469639164</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3114678604996</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>42.70024378692026</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605491</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>59.80899126751314</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.75880492008525</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>64.29867384511645</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.492512088716438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>203.9886248802665</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>44.75880492008508</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>85.27082710769088</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.73839297983875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-6.196968991670148e-13</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51625.46611374689</v>
+        <v>51625.4661137469</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="E2" t="n">
-        <v>57505.73864634828</v>
+        <v>57505.73864634827</v>
       </c>
       <c r="F2" t="n">
-        <v>57505.73864634829</v>
+        <v>57505.73864634827</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982135</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="I2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982132</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.13273982131</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.13273982128</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982135</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26366,34 +26366,34 @@
         <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>171151.343871591</v>
+        <v>171151.3438715908</v>
       </c>
       <c r="D3" t="n">
-        <v>330566.1828097471</v>
+        <v>330566.1828097473</v>
       </c>
       <c r="E3" t="n">
-        <v>795641.6244428754</v>
+        <v>795641.624442875</v>
       </c>
       <c r="F3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177108</v>
+        <v>25288.16188177116</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7144.153280225515</v>
+        <v>7144.153280225501</v>
       </c>
       <c r="L3" t="n">
-        <v>78955.96516982072</v>
+        <v>78955.96516982085</v>
       </c>
       <c r="M3" t="n">
         <v>204957.1230692802</v>
@@ -26418,7 +26418,7 @@
         <v>316573.0176407668</v>
       </c>
       <c r="C4" t="n">
-        <v>350239.016703761</v>
+        <v>350239.0167037611</v>
       </c>
       <c r="D4" t="n">
         <v>255177.1421685144</v>
@@ -26427,37 +26427,37 @@
         <v>8669.990103765376</v>
       </c>
       <c r="F4" t="n">
-        <v>8669.990103765398</v>
+        <v>8669.990103765376</v>
       </c>
       <c r="G4" t="n">
-        <v>39739.87518598537</v>
+        <v>39739.87518598545</v>
       </c>
       <c r="H4" t="n">
-        <v>39739.87518598541</v>
+        <v>39739.87518598545</v>
       </c>
       <c r="I4" t="n">
-        <v>39739.8751859854</v>
+        <v>39739.87518598544</v>
       </c>
       <c r="J4" t="n">
         <v>39739.8751859854</v>
       </c>
       <c r="K4" t="n">
+        <v>39739.87518598535</v>
+      </c>
+      <c r="L4" t="n">
         <v>39739.87518598539</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>39739.87518598537</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39739.87518598541</v>
+      </c>
+      <c r="O4" t="n">
         <v>39739.87518598538</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>39739.87518598539</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39739.87518598537</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39739.87518598539</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39739.87518598544</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
-        <v>41515.23339280496</v>
+        <v>41515.23339280495</v>
       </c>
       <c r="D5" t="n">
         <v>61145.70223437333</v>
       </c>
       <c r="E5" t="n">
-        <v>92448.99600060703</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060703</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="G5" t="n">
         <v>95106.4341021553</v>
@@ -26488,22 +26488,22 @@
         <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="K5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="J5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
         <v>95106.4341021553</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-403318.7705931969</v>
+        <v>-403650.5261473993</v>
       </c>
       <c r="C6" t="n">
-        <v>-501327.4612283357</v>
+        <v>-501327.4612283355</v>
       </c>
       <c r="D6" t="n">
-        <v>-585310.8944728136</v>
+        <v>-585310.8944728137</v>
       </c>
       <c r="E6" t="n">
-        <v>-839254.8719008996</v>
+        <v>-839390.6183706817</v>
       </c>
       <c r="F6" t="n">
-        <v>-43613.24745802417</v>
+        <v>-43748.99392780656</v>
       </c>
       <c r="G6" t="n">
-        <v>-98556.33843009041</v>
+        <v>-98556.3384300906</v>
       </c>
       <c r="H6" t="n">
-        <v>-73268.17654831937</v>
+        <v>-73268.17654831949</v>
       </c>
       <c r="I6" t="n">
-        <v>-73268.17654831949</v>
+        <v>-73268.17654831948</v>
       </c>
       <c r="J6" t="n">
-        <v>-73268.17654831946</v>
+        <v>-73268.1765483194</v>
       </c>
       <c r="K6" t="n">
-        <v>-80412.32982854491</v>
+        <v>-80412.32982854481</v>
       </c>
       <c r="L6" t="n">
         <v>-152224.1417181402</v>
@@ -26555,13 +26555,13 @@
         <v>-278225.2996175996</v>
       </c>
       <c r="N6" t="n">
-        <v>-73268.17654831932</v>
+        <v>-73268.17654831943</v>
       </c>
       <c r="O6" t="n">
         <v>-73268.17654831943</v>
       </c>
       <c r="P6" t="n">
-        <v>-73268.17654831949</v>
+        <v>-73268.17654831946</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221395</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221392</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>284.3998041289879</v>
+        <v>284.3998041289876</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="D4" t="n">
         <v>239.8079481415051</v>
@@ -26917,16 +26917,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1056725656972</v>
+        <v>178.105672565697</v>
       </c>
       <c r="D3" t="n">
-        <v>309.0762962090772</v>
+        <v>309.0762962090774</v>
       </c>
       <c r="E3" t="n">
-        <v>684.6837702820582</v>
+        <v>684.6837702820579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="D4" t="n">
-        <v>212.0494339508304</v>
+        <v>212.0494339508305</v>
       </c>
       <c r="E4" t="n">
-        <v>822.4471640474479</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,10 +27036,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.7585141906745</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508304</v>
+        <v>212.0494339508305</v>
       </c>
       <c r="M4" t="n">
         <v>822.4471640474478</v>
@@ -27154,16 +27154,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508304</v>
+        <v>212.0494339508305</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474479</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>335.0985819152745</v>
       </c>
       <c r="I2" t="n">
-        <v>194.0019016021898</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>123.0269119439133</v>
+        <v>39.11792724752164</v>
       </c>
       <c r="S2" t="n">
-        <v>199.2826725088645</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2252865051633</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3114678604996</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>327.0308568915488</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27594,7 +27594,7 @@
         <v>286.3085741960093</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.1175315510367</v>
+        <v>379.1175315510368</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>327.7658192251702</v>
       </c>
       <c r="I5" t="n">
-        <v>138.6396931739712</v>
+        <v>166.3982073646459</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>78.05030710248623</v>
+        <v>50.29179291181168</v>
       </c>
       <c r="S5" t="n">
         <v>182.9667608964391</v>
@@ -27670,19 +27670,19 @@
         <v>218.0909846693589</v>
       </c>
       <c r="U5" t="n">
-        <v>223.4956734535223</v>
+        <v>251.254187644197</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>299.9937442794603</v>
       </c>
       <c r="W5" t="n">
-        <v>338.9506911379083</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>375.947661076549</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>136.7317892826313</v>
       </c>
       <c r="H6" t="n">
-        <v>106.3274407582697</v>
+        <v>106.3274407582698</v>
       </c>
       <c r="I6" t="n">
-        <v>68.33494924374946</v>
+        <v>68.33494924374948</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.41853102564809</v>
+        <v>34.41853102564824</v>
       </c>
       <c r="S6" t="n">
-        <v>160.3205940237787</v>
+        <v>132.5620798331041</v>
       </c>
       <c r="T6" t="n">
-        <v>169.9405218626889</v>
+        <v>197.6990360533637</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9011368256735</v>
+        <v>198.1426226349989</v>
       </c>
       <c r="V6" t="n">
-        <v>205.0420729587505</v>
+        <v>208.3508878502791</v>
       </c>
       <c r="W6" t="n">
-        <v>227.2452838617733</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>139.4883069079531</v>
+        <v>139.4883069079532</v>
       </c>
       <c r="D7" t="n">
-        <v>120.8569588275376</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4781272526524</v>
+        <v>143.0284279535062</v>
       </c>
       <c r="H7" t="n">
         <v>157.6674510576338</v>
@@ -27795,7 +27795,7 @@
         <v>140.0276134180994</v>
       </c>
       <c r="J7" t="n">
-        <v>29.34202204548758</v>
+        <v>29.34202204548772</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.21767282821722</v>
+        <v>15.45915863754264</v>
       </c>
       <c r="R7" t="n">
-        <v>129.7839964842204</v>
+        <v>154.2336957833667</v>
       </c>
       <c r="S7" t="n">
         <v>215.0789845203285</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.9258935219754</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307566</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>167.0680976002063</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>173.1089558044316</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>21.22197207957663</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>87.94431032862977</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>109.4330205759079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5111388269062</v>
       </c>
     </row>
     <row r="9">
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>55.49597379107516</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,10 +27944,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
         <v>45.44580843958667</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>14.03566726973915</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
         <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941447</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>48.32077040486547</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.45270651659185</v>
+        <v>46.45270651659186</v>
       </c>
       <c r="V10" t="n">
-        <v>12.32969518232287</v>
+        <v>169.5677792906149</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29095,10 +29095,10 @@
         <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
+        <v>31.61020235221429</v>
+      </c>
+      <c r="W23" t="n">
         <v>31.61020235221395</v>
-      </c>
-      <c r="W23" t="n">
-        <v>31.61020235221338</v>
       </c>
       <c r="X23" t="n">
         <v>31.61020235221395</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221355</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221467</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143315795493418</v>
+        <v>1.143315795493417</v>
       </c>
       <c r="H5" t="n">
-        <v>11.70898289059697</v>
+        <v>11.70898289059696</v>
       </c>
       <c r="I5" t="n">
-        <v>44.07768220576003</v>
+        <v>44.07768220575999</v>
       </c>
       <c r="J5" t="n">
-        <v>97.03749899775954</v>
+        <v>97.03749899775947</v>
       </c>
       <c r="K5" t="n">
-        <v>145.4340566209959</v>
+        <v>145.4340566209958</v>
       </c>
       <c r="L5" t="n">
-        <v>180.4238073973277</v>
+        <v>180.4238073973275</v>
       </c>
       <c r="M5" t="n">
-        <v>200.7562496754337</v>
+        <v>200.7562496754336</v>
       </c>
       <c r="N5" t="n">
-        <v>204.0046956793794</v>
+        <v>204.0046956793792</v>
       </c>
       <c r="O5" t="n">
-        <v>192.6358492379417</v>
+        <v>192.6358492379416</v>
       </c>
       <c r="P5" t="n">
-        <v>164.410240536698</v>
+        <v>164.4102405366978</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.4652436105899</v>
+        <v>123.4652436105898</v>
       </c>
       <c r="R5" t="n">
-        <v>71.81881083866345</v>
+        <v>71.8188108386634</v>
       </c>
       <c r="S5" t="n">
-        <v>26.05330868980628</v>
+        <v>26.05330868980626</v>
       </c>
       <c r="T5" t="n">
-        <v>5.004864894772438</v>
+        <v>5.004864894772434</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0914652636394734</v>
+        <v>0.09146526363947333</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6117278805793324</v>
+        <v>0.6117278805793319</v>
       </c>
       <c r="H6" t="n">
-        <v>5.908003478226711</v>
+        <v>5.908003478226706</v>
       </c>
       <c r="I6" t="n">
-        <v>21.06168360766561</v>
+        <v>21.0616836076656</v>
       </c>
       <c r="J6" t="n">
-        <v>57.79486962964649</v>
+        <v>57.79486962964645</v>
       </c>
       <c r="K6" t="n">
-        <v>98.78063762846176</v>
+        <v>98.78063762846168</v>
       </c>
       <c r="L6" t="n">
-        <v>132.8227575792976</v>
+        <v>132.8227575792975</v>
       </c>
       <c r="M6" t="n">
-        <v>154.9978932502983</v>
+        <v>154.9978932502982</v>
       </c>
       <c r="N6" t="n">
-        <v>159.100226274008</v>
+        <v>159.1002262740079</v>
       </c>
       <c r="O6" t="n">
-        <v>145.5456242885397</v>
+        <v>145.5456242885396</v>
       </c>
       <c r="P6" t="n">
         <v>116.8131950204516</v>
       </c>
       <c r="Q6" t="n">
-        <v>78.08652735254776</v>
+        <v>78.08652735254771</v>
       </c>
       <c r="R6" t="n">
-        <v>37.98078893632032</v>
+        <v>37.98078893632029</v>
       </c>
       <c r="S6" t="n">
-        <v>11.36257708005908</v>
+        <v>11.36257708005907</v>
       </c>
       <c r="T6" t="n">
-        <v>2.465692641457922</v>
+        <v>2.46569264145792</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04024525530127188</v>
+        <v>0.04024525530127185</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5128521058063715</v>
+        <v>0.5128521058063711</v>
       </c>
       <c r="H7" t="n">
-        <v>4.559721449805743</v>
+        <v>4.559721449805739</v>
       </c>
       <c r="I7" t="n">
-        <v>15.42286150915888</v>
+        <v>15.42286150915887</v>
       </c>
       <c r="J7" t="n">
-        <v>36.25864388051046</v>
+        <v>36.25864388051043</v>
       </c>
       <c r="K7" t="n">
-        <v>59.58409011095842</v>
+        <v>59.58409011095837</v>
       </c>
       <c r="L7" t="n">
-        <v>76.24712125779455</v>
+        <v>76.24712125779449</v>
       </c>
       <c r="M7" t="n">
-        <v>80.3918987310842</v>
+        <v>80.39189873108414</v>
       </c>
       <c r="N7" t="n">
-        <v>78.48035906398779</v>
+        <v>78.48035906398773</v>
       </c>
       <c r="O7" t="n">
-        <v>72.48931400979515</v>
+        <v>72.48931400979509</v>
       </c>
       <c r="P7" t="n">
-        <v>62.02713105134512</v>
+        <v>62.02713105134507</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.94437042347717</v>
+        <v>42.94437042347713</v>
       </c>
       <c r="R7" t="n">
-        <v>23.05969559380284</v>
+        <v>23.05969559380283</v>
       </c>
       <c r="S7" t="n">
-        <v>8.937613516643761</v>
+        <v>8.937613516643754</v>
       </c>
       <c r="T7" t="n">
-        <v>2.191277179354496</v>
+        <v>2.191277179354494</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02797375122580211</v>
+        <v>0.02797375122580209</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I11" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O11" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R11" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,34 +31832,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L12" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5971294879671</v>
+        <v>626.873981279922</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0339827160632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>524.6188180368777</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31914,7 +31914,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J13" t="n">
         <v>162.9549067838147</v>
@@ -31923,13 +31923,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O13" t="n">
         <v>325.7840929246177</v>
@@ -31944,10 +31944,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -32075,7 +32075,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
         <v>443.9435090247271</v>
@@ -32087,16 +32087,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N15" t="n">
-        <v>706.0448840335913</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P15" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>530.1489483592447</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892351</v>
@@ -32336,7 +32336,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486998</v>
@@ -32555,13 +32555,13 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>502.1985563837558</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578284</v>
@@ -32570,10 +32570,10 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32795,22 +32795,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>529.6867378368186</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33032,22 +33032,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>529.6867378368186</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
         <v>443.9435090247271</v>
@@ -33269,10 +33269,10 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>151.0727449683534</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578284</v>
@@ -33281,10 +33281,10 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I32" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33451,7 +33451,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>152.6576015750707</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L34" t="n">
         <v>342.6725659692048</v>
@@ -33591,22 +33591,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>165.005512779783</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
         <v>443.9435090247271</v>
@@ -33743,10 +33743,10 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578284</v>
@@ -33755,10 +33755,10 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33983,7 +33983,7 @@
         <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578284</v>
@@ -33992,7 +33992,7 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q39" t="n">
-        <v>281.2161430610875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34147,13 +34147,13 @@
         <v>865.7509905565679</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q41" t="n">
         <v>554.8819566972012</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581568</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34211,7 +34211,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>156.5246331350996</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
@@ -34220,19 +34220,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34448,16 +34448,16 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>324.2686513738026</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578284</v>
@@ -34466,10 +34466,10 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>27.75851419067473</v>
+        <v>26.63695806175847</v>
       </c>
       <c r="K5" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>26.63695806175857</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.75851419067473</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26.63695806175847</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>27.75851419067473</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.63695806175857</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="N6" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="O6" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>26.63695806175857</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="M7" t="n">
-        <v>27.75851419067473</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>27.75851419067473</v>
+        <v>26.63695806175847</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="P7" t="n">
-        <v>27.75851419067473</v>
+        <v>27.75851419067461</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>66.78462588923557</v>
       </c>
       <c r="K9" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>205.4003814606436</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>181.3104407622271</v>
@@ -35334,10 +35334,10 @@
         <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>126.2075456122966</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>150.3034296918718</v>
       </c>
       <c r="N10" t="n">
         <v>207.9023887233377</v>
@@ -35349,7 +35349,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L11" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R11" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K12" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L12" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659488</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327299</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>382.0225735924332</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q12" t="n">
         <v>210.9575171831112</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.59572666714192</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K13" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L13" t="n">
-        <v>370.262591229521</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M13" t="n">
-        <v>400.884051537296</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N13" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O13" t="n">
-        <v>350.3692208386574</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P13" t="n">
         <v>276.043131703092</v>
@@ -35659,7 +35659,7 @@
         <v>687.4322072151683</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348821</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P14" t="n">
         <v>507.6654448276931</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
         <v>306.1020700503681</v>
@@ -35735,16 +35735,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>574.703171950258</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151683</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>387.5527039148003</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749049</v>
@@ -35984,7 +35984,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36121,7 +36121,7 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721838</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169881</v>
@@ -36142,7 +36142,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>363.6441766038816</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O21" t="n">
         <v>511.520156513384</v>
@@ -36218,10 +36218,10 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36443,22 +36443,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>387.5527039148003</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>387.5527039148003</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
         <v>306.1020700503681</v>
@@ -36917,10 +36917,10 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>8.938711046335131</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O30" t="n">
         <v>511.520156513384</v>
@@ -36929,10 +36929,10 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>18.68319416074047</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37309,7 +37309,7 @@
         <v>433.5251384721832</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
         <v>671.8997542381571</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>38.16788611311628</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
         <v>306.1020700503681</v>
@@ -37391,10 +37391,10 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
         <v>511.520156513384</v>
@@ -37403,10 +37403,10 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37631,7 +37631,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O39" t="n">
         <v>511.520156513384</v>
@@ -37640,7 +37640,7 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q39" t="n">
-        <v>141.2343689750659</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37719,7 +37719,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641589</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>635.6527791348811</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>18.68319416074064</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
@@ -37868,19 +37868,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O42" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
-        <v>182.1346174517844</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O45" t="n">
         <v>511.520156513384</v>
@@ -38114,10 +38114,10 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
